--- a/vehicle_routes_with_distances_and_times_1.xlsx
+++ b/vehicle_routes_with_distances_and_times_1.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5 (Load: 10, Time: 25.00) -&gt; 2 (Load: 40, Time: 213.00) -&gt; 1 (Load: 50, Time: 311.60) -&gt; 7 (Load: 70, Time: 1073.00) -&gt; 3 (Load: 80, Time: 1167.12) -&gt; 4 (Load: 90, Time: 1261.00) -&gt; 0 (Load: 90, Time: 1376.61)</t>
+          <t>5 (Load: 10, Time: 25.00) -&gt; 2 (Load: 40, Time: 213.00) -&gt; 1 (Load: 50, Time: 311.60) -&gt; 7 (Load: 70, Time: 1073.00) -&gt; 3 (Load: 80, Time: 1167.12) -&gt; 4 (Load: 90, Time: 1261.00) -&gt; Depot (Load: 90, Time: 1376.61)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6 (Load: 20, Time: 497.00) -&gt; 8 (Load: 40, Time: 2887.00) -&gt; 0 (Load: 40, Time: 2988.66)</t>
+          <t>6 (Load: 20, Time: 657.00) -&gt; 8 (Load: 40, Time: 2887.00) -&gt; Depot (Load: 40, Time: 2988.66)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,11 +507,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>497.00 -&gt; 2887.00 -&gt; 2988.66</t>
+          <t>657.00 -&gt; 2887.00 -&gt; 2988.66</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>62.41596919375336</v>
+        <v>62.41596919375334</v>
       </c>
       <c r="F3" t="n">
         <v>40</v>
